--- a/result/Database_consen.xlsx
+++ b/result/Database_consen.xlsx
@@ -470,13 +470,13 @@
         <v>13.33333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>12.33333333333333</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="D2" t="n">
         <v>0.1176470588235294</v>
       </c>
       <c r="E2" t="n">
-        <v>12.87191471572368</v>
+        <v>12.87191471572369</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>18.16666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>17.16666666666667</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="D3" t="n">
         <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>12.71523523209234</v>
+        <v>12.71523523209235</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>4.241379310344827</v>
       </c>
       <c r="C4" t="n">
-        <v>3.241379310344827</v>
+        <v>0.02269170579029734</v>
       </c>
       <c r="D4" t="n">
         <v>0.3176020408163265</v>
       </c>
       <c r="E4" t="n">
-        <v>11.07371366369637</v>
+        <v>11.0737136636964</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>2.609375</v>
       </c>
       <c r="C5" t="n">
-        <v>1.609375</v>
+        <v>0.02503912363067293</v>
       </c>
       <c r="D5" t="n">
         <v>1.510815307820299</v>
       </c>
       <c r="E5" t="n">
-        <v>11.85183873964534</v>
+        <v>11.85183873964536</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D6" t="n">
         <v>0.5041322314049587</v>
       </c>
       <c r="E6" t="n">
-        <v>11.4820064441355</v>
+        <v>11.48200644413551</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>2.588235294117647</v>
       </c>
       <c r="C7" t="n">
-        <v>1.588235294117647</v>
+        <v>0.006651017214397496</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10.5569331547838</v>
+        <v>10.55693315478381</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>12.88888888888889</v>
       </c>
       <c r="C8" t="n">
-        <v>11.88888888888889</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="D8" t="n">
         <v>0.1538461538461539</v>
       </c>
       <c r="E8" t="n">
-        <v>12.56406784801739</v>
+        <v>12.5640678480174</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         <v>6.714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>5.714285714285714</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D9" t="n">
         <v>0.5189873417721519</v>
       </c>
       <c r="E9" t="n">
-        <v>12.22238383210178</v>
+        <v>12.2223838321018</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>4.461538461538462</v>
       </c>
       <c r="C10" t="n">
-        <v>3.461538461538462</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="D10" t="n">
         <v>0.4830508474576271</v>
       </c>
       <c r="E10" t="n">
-        <v>11.3531612507315</v>
+        <v>11.35316125073152</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>6.195121951219512</v>
       </c>
       <c r="C11" t="n">
-        <v>5.195121951219512</v>
+        <v>0.01604068857589984</v>
       </c>
       <c r="D11" t="n">
         <v>0.848</v>
       </c>
       <c r="E11" t="n">
-        <v>10.64062779369282</v>
+        <v>10.64062779369283</v>
       </c>
     </row>
     <row r="12">
@@ -660,13 +660,13 @@
         <v>3.285714285714286</v>
       </c>
       <c r="C12" t="n">
-        <v>2.285714285714286</v>
+        <v>0.01095461658841941</v>
       </c>
       <c r="D12" t="n">
         <v>0.330188679245283</v>
       </c>
       <c r="E12" t="n">
-        <v>10.8368723793066</v>
+        <v>10.83687237930662</v>
       </c>
     </row>
     <row r="13">
@@ -679,13 +679,13 @@
         <v>6.25</v>
       </c>
       <c r="C13" t="n">
-        <v>5.25</v>
+        <v>0.02190923317683881</v>
       </c>
       <c r="D13" t="n">
         <v>0.9263456090651558</v>
       </c>
       <c r="E13" t="n">
-        <v>11.07167542873947</v>
+        <v>11.07167542873948</v>
       </c>
     </row>
     <row r="14">
@@ -698,13 +698,13 @@
         <v>2.846153846153846</v>
       </c>
       <c r="C14" t="n">
-        <v>1.846153846153846</v>
+        <v>0.005086071987480438</v>
       </c>
       <c r="D14" t="n">
         <v>0.2826086956521739</v>
       </c>
       <c r="E14" t="n">
-        <v>10.05472324111425</v>
+        <v>10.05472324111427</v>
       </c>
     </row>
     <row r="15">
@@ -717,13 +717,13 @@
         <v>11.09523809523809</v>
       </c>
       <c r="C15" t="n">
-        <v>10.09523809523809</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D15" t="n">
         <v>0.4117647058823529</v>
       </c>
       <c r="E15" t="n">
-        <v>12.25571896609387</v>
+        <v>12.25571896609389</v>
       </c>
     </row>
     <row r="16">
@@ -736,13 +736,13 @@
         <v>8.473684210526315</v>
       </c>
       <c r="C16" t="n">
-        <v>7.473684210526316</v>
+        <v>0.007433489827856025</v>
       </c>
       <c r="D16" t="n">
         <v>0.4242424242424243</v>
       </c>
       <c r="E16" t="n">
-        <v>12.1982806617762</v>
+        <v>12.19828066177621</v>
       </c>
     </row>
     <row r="17">
@@ -755,13 +755,13 @@
         <v>8.285714285714286</v>
       </c>
       <c r="C17" t="n">
-        <v>7.285714285714286</v>
+        <v>0.02464788732394366</v>
       </c>
       <c r="D17" t="n">
         <v>0.6472727272727272</v>
       </c>
       <c r="E17" t="n">
-        <v>10.53029208902695</v>
+        <v>10.53029208902696</v>
       </c>
     </row>
     <row r="18">
@@ -774,13 +774,13 @@
         <v>16.3</v>
       </c>
       <c r="C18" t="n">
-        <v>15.3</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="D18" t="n">
         <v>0.5794392523364486</v>
       </c>
       <c r="E18" t="n">
-        <v>11.75931786922444</v>
+        <v>11.75931786922446</v>
       </c>
     </row>
     <row r="19">
@@ -793,13 +793,13 @@
         <v>10.94444444444444</v>
       </c>
       <c r="C19" t="n">
-        <v>9.944444444444445</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="D19" t="n">
         <v>0.6351351351351351</v>
       </c>
       <c r="E19" t="n">
-        <v>11.33891020552521</v>
+        <v>11.33891020552522</v>
       </c>
     </row>
     <row r="20">
@@ -812,13 +812,13 @@
         <v>13.8421052631579</v>
       </c>
       <c r="C20" t="n">
-        <v>12.8421052631579</v>
+        <v>0.01486697965571205</v>
       </c>
       <c r="D20" t="n">
         <v>0.7633136094674556</v>
       </c>
       <c r="E20" t="n">
-        <v>11.48187479899264</v>
+        <v>11.48187479899266</v>
       </c>
     </row>
     <row r="21">
@@ -831,13 +831,13 @@
         <v>18.80769230769231</v>
       </c>
       <c r="C21" t="n">
-        <v>17.80769230769231</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="D21" t="n">
         <v>0.6213592233009708</v>
       </c>
       <c r="E21" t="n">
-        <v>11.94833632518068</v>
+        <v>11.94833632518069</v>
       </c>
     </row>
     <row r="22">
@@ -850,13 +850,13 @@
         <v>17.89285714285714</v>
       </c>
       <c r="C22" t="n">
-        <v>16.89285714285714</v>
+        <v>0.01095461658841941</v>
       </c>
       <c r="D22" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="E22" t="n">
-        <v>12.28629360629252</v>
+        <v>12.28629360629253</v>
       </c>
     </row>
     <row r="23">
@@ -869,13 +869,13 @@
         <v>21.5</v>
       </c>
       <c r="C23" t="n">
-        <v>20.5</v>
+        <v>0.006259780907668232</v>
       </c>
       <c r="D23" t="n">
         <v>0.6491228070175439</v>
       </c>
       <c r="E23" t="n">
-        <v>12.65067589667834</v>
+        <v>12.65067589667836</v>
       </c>
     </row>
     <row r="24">
@@ -888,13 +888,13 @@
         <v>7.933333333333334</v>
       </c>
       <c r="C24" t="n">
-        <v>6.933333333333334</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="D24" t="n">
         <v>0.2528735632183908</v>
       </c>
       <c r="E24" t="n">
-        <v>11.50194751118218</v>
+        <v>11.50194751118219</v>
       </c>
     </row>
     <row r="25">
@@ -907,13 +907,13 @@
         <v>17.92307692307692</v>
       </c>
       <c r="C25" t="n">
-        <v>16.92307692307692</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="D25" t="n">
         <v>0.2058823529411765</v>
       </c>
       <c r="E25" t="n">
-        <v>12.33920799900829</v>
+        <v>12.3392079990083</v>
       </c>
     </row>
     <row r="26">
@@ -926,13 +926,13 @@
         <v>11.76595744680851</v>
       </c>
       <c r="C26" t="n">
-        <v>10.76595744680851</v>
+        <v>0.01838810641627543</v>
       </c>
       <c r="D26" t="n">
         <v>1.161764705882353</v>
       </c>
       <c r="E26" t="n">
-        <v>11.60934940846844</v>
+        <v>11.60934940846845</v>
       </c>
     </row>
     <row r="27">
@@ -945,13 +945,13 @@
         <v>16.66666666666667</v>
       </c>
       <c r="C27" t="n">
-        <v>15.66666666666667</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="D27" t="n">
         <v>0.8734177215189873</v>
       </c>
       <c r="E27" t="n">
-        <v>11.95114479240055</v>
+        <v>11.95114479240056</v>
       </c>
     </row>
     <row r="28">
@@ -964,13 +964,13 @@
         <v>18.22222222222222</v>
       </c>
       <c r="C28" t="n">
-        <v>17.22222222222222</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="D28" t="n">
         <v>0.3043478260869565</v>
       </c>
       <c r="E28" t="n">
-        <v>12.58131927486206</v>
+        <v>12.58131927486208</v>
       </c>
     </row>
     <row r="29">
@@ -983,13 +983,13 @@
         <v>13.53658536585366</v>
       </c>
       <c r="C29" t="n">
-        <v>12.53658536585366</v>
+        <v>0.01604068857589984</v>
       </c>
       <c r="D29" t="n">
         <v>1.168032786885246</v>
       </c>
       <c r="E29" t="n">
-        <v>11.43034218357044</v>
+        <v>11.43034218357046</v>
       </c>
     </row>
     <row r="30">
@@ -1002,13 +1002,13 @@
         <v>7.96875</v>
       </c>
       <c r="C30" t="n">
-        <v>6.96875</v>
+        <v>0.01251956181533646</v>
       </c>
       <c r="D30" t="n">
         <v>0.8088888888888889</v>
       </c>
       <c r="E30" t="n">
-        <v>11.50972589574368</v>
+        <v>11.5097258957437</v>
       </c>
     </row>
     <row r="31">
@@ -1021,13 +1021,13 @@
         <v>12.93333333333333</v>
       </c>
       <c r="C31" t="n">
-        <v>11.93333333333333</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="D31" t="n">
         <v>0.5272727272727272</v>
       </c>
       <c r="E31" t="n">
-        <v>11.95018045839492</v>
+        <v>11.95018045839493</v>
       </c>
     </row>
     <row r="32">
@@ -1040,13 +1040,13 @@
         <v>9.692307692307692</v>
       </c>
       <c r="C32" t="n">
-        <v>8.692307692307692</v>
+        <v>0.02543035993740219</v>
       </c>
       <c r="D32" t="n">
         <v>1.118840579710145</v>
       </c>
       <c r="E32" t="n">
-        <v>11.79876198264929</v>
+        <v>11.7987619826493</v>
       </c>
     </row>
     <row r="33">
@@ -1059,13 +1059,13 @@
         <v>22.48</v>
       </c>
       <c r="C33" t="n">
-        <v>21.48</v>
+        <v>0.009780907668231613</v>
       </c>
       <c r="D33" t="n">
         <v>0.6095238095238096</v>
       </c>
       <c r="E33" t="n">
-        <v>12.16226738678936</v>
+        <v>12.16226738678937</v>
       </c>
     </row>
     <row r="34">
@@ -1078,13 +1078,13 @@
         <v>13.63333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>12.63333333333333</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="D34" t="n">
         <v>0.18</v>
       </c>
       <c r="E34" t="n">
-        <v>11.60913298211802</v>
+        <v>11.60913298211804</v>
       </c>
     </row>
     <row r="35">
@@ -1097,13 +1097,13 @@
         <v>6.60655737704918</v>
       </c>
       <c r="C35" t="n">
-        <v>5.60655737704918</v>
+        <v>0.02386541471048513</v>
       </c>
       <c r="D35" t="n">
         <v>0.799081515499426</v>
       </c>
       <c r="E35" t="n">
-        <v>11.43902181747207</v>
+        <v>11.43902181747208</v>
       </c>
     </row>
     <row r="36">
@@ -1116,13 +1116,13 @@
         <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>0.00782472613458529</v>
       </c>
       <c r="D36" t="n">
         <v>1.153153153153153</v>
       </c>
       <c r="E36" t="n">
-        <v>12.47517551255269</v>
+        <v>12.47517551255271</v>
       </c>
     </row>
     <row r="37">
@@ -1135,13 +1135,13 @@
         <v>23.0625</v>
       </c>
       <c r="C37" t="n">
-        <v>22.0625</v>
+        <v>0.006259780907668232</v>
       </c>
       <c r="D37" t="n">
         <v>0.1363636363636364</v>
       </c>
       <c r="E37" t="n">
-        <v>12.11593600287746</v>
+        <v>12.11593600287748</v>
       </c>
     </row>
     <row r="38">
@@ -1154,13 +1154,13 @@
         <v>16.70833333333333</v>
       </c>
       <c r="C38" t="n">
-        <v>15.70833333333333</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="D38" t="n">
         <v>0.4666666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>11.73988492906764</v>
+        <v>11.73988492906766</v>
       </c>
     </row>
     <row r="39">
@@ -1173,7 +1173,7 @@
         <v>17</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="D39" t="n">
         <v>0.7833333333333333</v>
@@ -1192,13 +1192,13 @@
         <v>18.84</v>
       </c>
       <c r="C40" t="n">
-        <v>17.84</v>
+        <v>0.009780907668231613</v>
       </c>
       <c r="D40" t="n">
         <v>0.7433628318584071</v>
       </c>
       <c r="E40" t="n">
-        <v>11.83600720578643</v>
+        <v>11.83600720578645</v>
       </c>
     </row>
     <row r="41">
@@ -1211,13 +1211,13 @@
         <v>12.06451612903226</v>
       </c>
       <c r="C41" t="n">
-        <v>11.06451612903226</v>
+        <v>0.0121283255086072</v>
       </c>
       <c r="D41" t="n">
         <v>0.6312056737588653</v>
       </c>
       <c r="E41" t="n">
-        <v>10.96064097755029</v>
+        <v>10.9606409775503</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         <v>7.585365853658536</v>
       </c>
       <c r="C42" t="n">
-        <v>6.585365853658536</v>
+        <v>0.01604068857589984</v>
       </c>
       <c r="D42" t="n">
         <v>0.9134860050890585</v>
       </c>
       <c r="E42" t="n">
-        <v>10.97306568597839</v>
+        <v>10.9730656859784</v>
       </c>
     </row>
     <row r="43">
@@ -1249,13 +1249,13 @@
         <v>25.21428571428572</v>
       </c>
       <c r="C43" t="n">
-        <v>24.21428571428572</v>
+        <v>0.005477308294209703</v>
       </c>
       <c r="D43" t="n">
         <v>0.1515151515151515</v>
       </c>
       <c r="E43" t="n">
-        <v>11.97785945863135</v>
+        <v>11.97785945863136</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         <v>13.58333333333333</v>
       </c>
       <c r="C44" t="n">
-        <v>12.58333333333333</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="D44" t="n">
         <v>0.25</v>
       </c>
       <c r="E44" t="n">
-        <v>11.84404586712978</v>
+        <v>11.8440458671298</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1287,13 @@
         <v>2.04</v>
       </c>
       <c r="C45" t="n">
-        <v>1.04</v>
+        <v>0.009780907668231613</v>
       </c>
       <c r="D45" t="n">
         <v>0.3818181818181818</v>
       </c>
       <c r="E45" t="n">
-        <v>7.707257086853939</v>
+        <v>7.707257086853944</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         <v>14.70588235294118</v>
       </c>
       <c r="C46" t="n">
-        <v>13.70588235294118</v>
+        <v>0.006651017214397496</v>
       </c>
       <c r="D46" t="n">
         <v>0.04</v>
       </c>
       <c r="E46" t="n">
-        <v>11.59974384155793</v>
+        <v>11.59974384155794</v>
       </c>
     </row>
     <row r="47">
@@ -1325,13 +1325,13 @@
         <v>8.777777777777779</v>
       </c>
       <c r="C47" t="n">
-        <v>7.777777777777778</v>
+        <v>0.0176056338028169</v>
       </c>
       <c r="D47" t="n">
         <v>0.8719512195121951</v>
       </c>
       <c r="E47" t="n">
-        <v>11.37739146806017</v>
+        <v>11.37739146806018</v>
       </c>
     </row>
     <row r="48">
@@ -1344,13 +1344,13 @@
         <v>11.83870967741935</v>
       </c>
       <c r="C48" t="n">
-        <v>10.83870967741935</v>
+        <v>0.0121283255086072</v>
       </c>
       <c r="D48" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="E48" t="n">
-        <v>11.06100746062871</v>
+        <v>11.06100746062872</v>
       </c>
     </row>
     <row r="49">
@@ -1363,13 +1363,13 @@
         <v>16.61904761904762</v>
       </c>
       <c r="C49" t="n">
-        <v>15.61904761904762</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D49" t="n">
         <v>0.1016949152542373</v>
       </c>
       <c r="E49" t="n">
-        <v>11.56863362024123</v>
+        <v>11.56863362024125</v>
       </c>
     </row>
     <row r="50">
@@ -1382,13 +1382,13 @@
         <v>14.29411764705882</v>
       </c>
       <c r="C50" t="n">
-        <v>13.29411764705882</v>
+        <v>0.01330203442879499</v>
       </c>
       <c r="D50" t="n">
         <v>0.3739130434782609</v>
       </c>
       <c r="E50" t="n">
-        <v>11.97643558784759</v>
+        <v>11.9764355878476</v>
       </c>
     </row>
     <row r="51">
@@ -1401,13 +1401,13 @@
         <v>20.15</v>
       </c>
       <c r="C51" t="n">
-        <v>19.15</v>
+        <v>0.00782472613458529</v>
       </c>
       <c r="D51" t="n">
         <v>0.4</v>
       </c>
       <c r="E51" t="n">
-        <v>10.84409218536669</v>
+        <v>10.8440921853667</v>
       </c>
     </row>
     <row r="52">
@@ -1420,13 +1420,13 @@
         <v>4.047619047619047</v>
       </c>
       <c r="C52" t="n">
-        <v>3.047619047619047</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D52" t="n">
         <v>0.05084745762711865</v>
       </c>
       <c r="E52" t="n">
-        <v>11.41074989412173</v>
+        <v>11.41074989412174</v>
       </c>
     </row>
     <row r="53">
@@ -1439,13 +1439,13 @@
         <v>12.23809523809524</v>
       </c>
       <c r="C53" t="n">
-        <v>11.23809523809524</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D53" t="n">
         <v>1.133928571428571</v>
       </c>
       <c r="E53" t="n">
-        <v>12.61500846433014</v>
+        <v>12.61500846433015</v>
       </c>
     </row>
     <row r="54">
@@ -1458,13 +1458,13 @@
         <v>14.81818181818182</v>
       </c>
       <c r="C54" t="n">
-        <v>13.81818181818182</v>
+        <v>0.004303599374021909</v>
       </c>
       <c r="D54" t="n">
         <v>0.3125</v>
       </c>
       <c r="E54" t="n">
-        <v>11.8984013474217</v>
+        <v>11.89840134742171</v>
       </c>
     </row>
     <row r="55">
@@ -1477,13 +1477,13 @@
         <v>4.344827586206897</v>
       </c>
       <c r="C55" t="n">
-        <v>3.344827586206896</v>
+        <v>0.01134585289514867</v>
       </c>
       <c r="D55" t="n">
         <v>0.5114155251141552</v>
       </c>
       <c r="E55" t="n">
-        <v>10.3790830491639</v>
+        <v>10.37908304916392</v>
       </c>
     </row>
     <row r="56">
@@ -1496,13 +1496,13 @@
         <v>12.93333333333333</v>
       </c>
       <c r="C56" t="n">
-        <v>11.93333333333333</v>
+        <v>0.005868544600938967</v>
       </c>
       <c r="D56" t="n">
         <v>0.25</v>
       </c>
       <c r="E56" t="n">
-        <v>11.44361461861918</v>
+        <v>11.4436146186192</v>
       </c>
     </row>
     <row r="57">
@@ -1515,13 +1515,13 @@
         <v>14.14285714285714</v>
       </c>
       <c r="C57" t="n">
-        <v>13.14285714285714</v>
+        <v>0.005477308294209703</v>
       </c>
       <c r="D57" t="n">
         <v>0.2432432432432433</v>
       </c>
       <c r="E57" t="n">
-        <v>12.64666993470542</v>
+        <v>12.64666993470544</v>
       </c>
     </row>
     <row r="58">
@@ -1534,13 +1534,13 @@
         <v>5.954545454545454</v>
       </c>
       <c r="C58" t="n">
-        <v>4.954545454545454</v>
+        <v>0.008607198748043818</v>
       </c>
       <c r="D58" t="n">
         <v>0.6730769230769231</v>
       </c>
       <c r="E58" t="n">
-        <v>11.38064828601139</v>
+        <v>11.3806482860114</v>
       </c>
     </row>
     <row r="59">
@@ -1553,13 +1553,13 @@
         <v>12.84615384615385</v>
       </c>
       <c r="C59" t="n">
-        <v>11.84615384615385</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="D59" t="n">
         <v>0.8070175438596491</v>
       </c>
       <c r="E59" t="n">
-        <v>10.7366075656544</v>
+        <v>10.73660756565442</v>
       </c>
     </row>
     <row r="60">
@@ -1572,13 +1572,13 @@
         <v>13.73809523809524</v>
       </c>
       <c r="C60" t="n">
-        <v>12.73809523809524</v>
+        <v>0.01643192488262911</v>
       </c>
       <c r="D60" t="n">
         <v>1.173780487804878</v>
       </c>
       <c r="E60" t="n">
-        <v>11.83088437337027</v>
+        <v>11.83088437337028</v>
       </c>
     </row>
     <row r="61">
@@ -1591,13 +1591,13 @@
         <v>20.14285714285714</v>
       </c>
       <c r="C61" t="n">
-        <v>19.14285714285714</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D61" t="n">
         <v>0.2083333333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>11.853322222807</v>
+        <v>11.85332222280701</v>
       </c>
     </row>
     <row r="62">
@@ -1610,13 +1610,13 @@
         <v>6.48</v>
       </c>
       <c r="C62" t="n">
-        <v>5.48</v>
+        <v>0.01956181533646323</v>
       </c>
       <c r="D62" t="n">
         <v>1.207006369426752</v>
       </c>
       <c r="E62" t="n">
-        <v>11.53270160901512</v>
+        <v>11.53270160901514</v>
       </c>
     </row>
     <row r="63">
@@ -1629,13 +1629,13 @@
         <v>17.78571428571428</v>
       </c>
       <c r="C63" t="n">
-        <v>16.78571428571428</v>
+        <v>0.01095461658841941</v>
       </c>
       <c r="D63" t="n">
         <v>0.7739130434782608</v>
       </c>
       <c r="E63" t="n">
-        <v>11.17186447388448</v>
+        <v>11.17186447388449</v>
       </c>
     </row>
     <row r="64">
@@ -1648,13 +1648,13 @@
         <v>18.66666666666667</v>
       </c>
       <c r="C64" t="n">
-        <v>17.66666666666667</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D64" t="n">
         <v>0.7032967032967034</v>
       </c>
       <c r="E64" t="n">
-        <v>12.45154670119844</v>
+        <v>12.45154670119846</v>
       </c>
     </row>
     <row r="65">
@@ -1667,13 +1667,13 @@
         <v>10.9</v>
       </c>
       <c r="C65" t="n">
-        <v>9.9</v>
+        <v>0.01956181533646323</v>
       </c>
       <c r="D65" t="n">
         <v>1.295121951219512</v>
       </c>
       <c r="E65" t="n">
-        <v>11.16602471260087</v>
+        <v>11.16602471260089</v>
       </c>
     </row>
     <row r="66">
@@ -1686,13 +1686,13 @@
         <v>17.09523809523809</v>
       </c>
       <c r="C66" t="n">
-        <v>16.09523809523809</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D66" t="n">
         <v>0.3387096774193548</v>
       </c>
       <c r="E66" t="n">
-        <v>11.74677640324731</v>
+        <v>11.74677640324732</v>
       </c>
     </row>
     <row r="67">
@@ -1705,13 +1705,13 @@
         <v>3.333333333333333</v>
       </c>
       <c r="C67" t="n">
-        <v>2.333333333333333</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D67" t="n">
         <v>0.2030075187969925</v>
       </c>
       <c r="E67" t="n">
-        <v>11.67273829947382</v>
+        <v>11.67273829947383</v>
       </c>
     </row>
     <row r="68">
@@ -1724,13 +1724,13 @@
         <v>19.5</v>
       </c>
       <c r="C68" t="n">
-        <v>18.5</v>
+        <v>0.003129890453834116</v>
       </c>
       <c r="D68" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="E68" t="n">
-        <v>13.50688035405382</v>
+        <v>13.50688035405383</v>
       </c>
     </row>
     <row r="69">
@@ -1743,13 +1743,13 @@
         <v>8.227272727272727</v>
       </c>
       <c r="C69" t="n">
-        <v>7.227272727272728</v>
+        <v>0.008607198748043818</v>
       </c>
       <c r="D69" t="n">
         <v>0.3953488372093023</v>
       </c>
       <c r="E69" t="n">
-        <v>12.06188890421124</v>
+        <v>12.06188890421125</v>
       </c>
     </row>
     <row r="70">
@@ -1762,13 +1762,13 @@
         <v>4.566666666666666</v>
       </c>
       <c r="C70" t="n">
-        <v>3.566666666666667</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="D70" t="n">
         <v>0.5649717514124294</v>
       </c>
       <c r="E70" t="n">
-        <v>10.74876087485787</v>
+        <v>10.74876087485789</v>
       </c>
     </row>
     <row r="71">
@@ -1781,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>0.01251956181533646</v>
       </c>
       <c r="D71" t="n">
         <v>0.3944954128440367</v>
       </c>
       <c r="E71" t="n">
-        <v>11.08824991330613</v>
+        <v>11.08824991330615</v>
       </c>
     </row>
     <row r="72">
@@ -1800,13 +1800,13 @@
         <v>6.857142857142857</v>
       </c>
       <c r="C72" t="n">
-        <v>5.857142857142857</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D72" t="n">
         <v>0.4117647058823529</v>
       </c>
       <c r="E72" t="n">
-        <v>11.33285722596576</v>
+        <v>11.33285722596577</v>
       </c>
     </row>
     <row r="73">
@@ -1819,13 +1819,13 @@
         <v>6.857142857142857</v>
       </c>
       <c r="C73" t="n">
-        <v>5.857142857142857</v>
+        <v>0.005477308294209703</v>
       </c>
       <c r="D73" t="n">
         <v>0.1904761904761905</v>
       </c>
       <c r="E73" t="n">
-        <v>10.04558902210539</v>
+        <v>10.0455890221054</v>
       </c>
     </row>
     <row r="74">
@@ -1838,13 +1838,13 @@
         <v>5.4</v>
       </c>
       <c r="C74" t="n">
-        <v>4.4</v>
+        <v>0.00782472613458529</v>
       </c>
       <c r="D74" t="n">
         <v>0.2976190476190476</v>
       </c>
       <c r="E74" t="n">
-        <v>10.49568931433964</v>
+        <v>10.49568931433966</v>
       </c>
     </row>
     <row r="75">
@@ -1857,13 +1857,13 @@
         <v>10.45454545454546</v>
       </c>
       <c r="C75" t="n">
-        <v>9.454545454545455</v>
+        <v>0.008607198748043818</v>
       </c>
       <c r="D75" t="n">
         <v>0.6620689655172414</v>
       </c>
       <c r="E75" t="n">
-        <v>11.43829873315193</v>
+        <v>11.43829873315195</v>
       </c>
     </row>
     <row r="76">
@@ -1876,13 +1876,13 @@
         <v>17.33333333333333</v>
       </c>
       <c r="C76" t="n">
-        <v>16.33333333333333</v>
+        <v>0.01173708920187793</v>
       </c>
       <c r="D76" t="n">
         <v>0.5507246376811594</v>
       </c>
       <c r="E76" t="n">
-        <v>11.75860885304204</v>
+        <v>11.75860885304205</v>
       </c>
     </row>
     <row r="77">
@@ -1895,13 +1895,13 @@
         <v>9.761904761904763</v>
       </c>
       <c r="C77" t="n">
-        <v>8.761904761904763</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D77" t="n">
         <v>0.6535433070866141</v>
       </c>
       <c r="E77" t="n">
-        <v>11.42058824869183</v>
+        <v>11.42058824869185</v>
       </c>
     </row>
     <row r="78">
@@ -1914,13 +1914,13 @@
         <v>4.055555555555555</v>
       </c>
       <c r="C78" t="n">
-        <v>3.055555555555555</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="D78" t="n">
         <v>0.2608695652173913</v>
       </c>
       <c r="E78" t="n">
-        <v>10.98041797655629</v>
+        <v>10.9804179765563</v>
       </c>
     </row>
     <row r="79">
@@ -1933,13 +1933,13 @@
         <v>2.846153846153846</v>
       </c>
       <c r="C79" t="n">
-        <v>1.846153846153846</v>
+        <v>0.01525821596244131</v>
       </c>
       <c r="D79" t="n">
         <v>0.1656050955414013</v>
       </c>
       <c r="E79" t="n">
-        <v>8.591907277023456</v>
+        <v>8.591907277023465</v>
       </c>
     </row>
     <row r="80">
@@ -1952,13 +1952,13 @@
         <v>15.78947368421053</v>
       </c>
       <c r="C80" t="n">
-        <v>14.78947368421053</v>
+        <v>0.01486697965571205</v>
       </c>
       <c r="D80" t="n">
         <v>0.7992277992277992</v>
       </c>
       <c r="E80" t="n">
-        <v>11.18116154731873</v>
+        <v>11.18116154731875</v>
       </c>
     </row>
     <row r="81">
@@ -1971,13 +1971,13 @@
         <v>19.44</v>
       </c>
       <c r="C81" t="n">
-        <v>18.44</v>
+        <v>0.009780907668231613</v>
       </c>
       <c r="D81" t="n">
         <v>1.09375</v>
       </c>
       <c r="E81" t="n">
-        <v>12.07023346104303</v>
+        <v>12.07023346104304</v>
       </c>
     </row>
     <row r="82">
@@ -1990,13 +1990,13 @@
         <v>20.52380952380953</v>
       </c>
       <c r="C82" t="n">
-        <v>19.52380952380953</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D82" t="n">
         <v>0.3230769230769231</v>
       </c>
       <c r="E82" t="n">
-        <v>11.99418907583981</v>
+        <v>11.99418907583982</v>
       </c>
     </row>
     <row r="83">
@@ -2009,13 +2009,13 @@
         <v>16.15151515151515</v>
       </c>
       <c r="C83" t="n">
-        <v>15.15151515151515</v>
+        <v>0.01291079812206573</v>
       </c>
       <c r="D83" t="n">
         <v>0.6379310344827587</v>
       </c>
       <c r="E83" t="n">
-        <v>11.82104466573701</v>
+        <v>11.82104466573702</v>
       </c>
     </row>
     <row r="84">
@@ -2028,13 +2028,13 @@
         <v>18.55555555555556</v>
       </c>
       <c r="C84" t="n">
-        <v>17.55555555555556</v>
+        <v>0.01056338028169014</v>
       </c>
       <c r="D84" t="n">
         <v>0.7386934673366834</v>
       </c>
       <c r="E84" t="n">
-        <v>12.01874899393457</v>
+        <v>12.01874899393458</v>
       </c>
     </row>
     <row r="85">
@@ -2047,13 +2047,13 @@
         <v>10.82608695652174</v>
       </c>
       <c r="C85" t="n">
-        <v>9.826086956521738</v>
+        <v>0.008998435054773083</v>
       </c>
       <c r="D85" t="n">
         <v>0.3472222222222222</v>
       </c>
       <c r="E85" t="n">
-        <v>11.91020300258147</v>
+        <v>11.91020300258148</v>
       </c>
     </row>
     <row r="86">
@@ -2066,13 +2066,13 @@
         <v>21.5</v>
       </c>
       <c r="C86" t="n">
-        <v>20.5</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="D86" t="n">
         <v>0.9496402877697842</v>
       </c>
       <c r="E86" t="n">
-        <v>11.89683329029405</v>
+        <v>11.89683329029406</v>
       </c>
     </row>
     <row r="87">
@@ -2085,13 +2085,13 @@
         <v>13.97777777777778</v>
       </c>
       <c r="C87" t="n">
-        <v>12.97777777777778</v>
+        <v>0.0176056338028169</v>
       </c>
       <c r="D87" t="n">
         <v>1.424063116370809</v>
       </c>
       <c r="E87" t="n">
-        <v>11.198088856385</v>
+        <v>11.19808885638501</v>
       </c>
     </row>
     <row r="88">
@@ -2104,13 +2104,13 @@
         <v>18.54166666666667</v>
       </c>
       <c r="C88" t="n">
-        <v>17.54166666666667</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="D88" t="n">
         <v>0.4024390243902439</v>
       </c>
       <c r="E88" t="n">
-        <v>11.62403839644573</v>
+        <v>11.62403839644574</v>
       </c>
     </row>
     <row r="89">
@@ -2123,13 +2123,13 @@
         <v>21.80952380952381</v>
       </c>
       <c r="C89" t="n">
-        <v>20.80952380952381</v>
+        <v>0.008215962441314555</v>
       </c>
       <c r="D89" t="n">
         <v>0.2950819672131147</v>
       </c>
       <c r="E89" t="n">
-        <v>12.47328252565227</v>
+        <v>12.47328252565228</v>
       </c>
     </row>
     <row r="90">
@@ -2142,13 +2142,13 @@
         <v>14.90909090909091</v>
       </c>
       <c r="C90" t="n">
-        <v>13.90909090909091</v>
+        <v>0.01721439749608764</v>
       </c>
       <c r="D90" t="n">
         <v>1.261455525606469</v>
       </c>
       <c r="E90" t="n">
-        <v>11.55674597608437</v>
+        <v>11.55674597608438</v>
       </c>
     </row>
     <row r="91">
@@ -2161,13 +2161,13 @@
         <v>19.84615384615385</v>
       </c>
       <c r="C91" t="n">
-        <v>18.84615384615385</v>
+        <v>0.01017214397496088</v>
       </c>
       <c r="D91" t="n">
         <v>0.5486725663716814</v>
       </c>
       <c r="E91" t="n">
-        <v>11.87538582417853</v>
+        <v>11.87538582417854</v>
       </c>
     </row>
     <row r="92">
@@ -2180,13 +2180,13 @@
         <v>13.2</v>
       </c>
       <c r="C92" t="n">
-        <v>12.2</v>
+        <v>0.003912363067292645</v>
       </c>
       <c r="D92" t="n">
         <v>0.09090909090909091</v>
       </c>
       <c r="E92" t="n">
-        <v>12.90918701525035</v>
+        <v>12.90918701525036</v>
       </c>
     </row>
     <row r="93">
@@ -2199,13 +2199,13 @@
         <v>11.025</v>
       </c>
       <c r="C93" t="n">
-        <v>10.025</v>
+        <v>0.01564945226917058</v>
       </c>
       <c r="D93" t="n">
         <v>0.9947643979057592</v>
       </c>
       <c r="E93" t="n">
-        <v>11.59784378385273</v>
+        <v>11.59784378385274</v>
       </c>
     </row>
   </sheetData>
